--- a/01_Input/00_CO Validation/Cuba - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Cuba - Energy Projects.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27002"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27018"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="110" documentId="11_8CC573B517C32C88C802DE539ED75CBA98A8355C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB9D4FF6-8C48-42BC-99C8-28DA8B6C06A4}"/>
+  <xr:revisionPtr revIDLastSave="130" documentId="11_8CC573B517C32C88C802DE539ED75CBA98A8355C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B66BBD97-89A6-4B11-8B2B-1F500FB4F7E0}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,6 +15,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="94">
   <si>
     <t>Project ID</t>
   </si>
@@ -139,6 +142,166 @@
     <t>http://open.undp.org/projects/00110578</t>
   </si>
   <si>
+    <t>Energy (MW added)</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">A generation capacity of 1,654.6 MW was installed through photovoltaic energy in 818 local communities (827 SPVs installed and 2000 SPVs repaired). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> This indicator has been included in the fourth Situation Report to the European Union.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Note - this output has been reduced to 100 to provide a more realistic estimate, TBD to confirm with country office</t>
+    </r>
+  </si>
+  <si>
+    <t>MUNICIPIO MARTI ENERGIA SOSTENIBLE</t>
+  </si>
+  <si>
+    <t>http://open.undp.org/projects/00118945</t>
+  </si>
+  <si>
+    <t>Number of direct beneficiaries of the project by use of biomethane public transport</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Five low-emission public transport buses will be put into operation in the Martí Municipality, after the installation of a biomethane plant with its filling stations. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> This indicator will be declared in a future Situationt Report to the European Union, once the technology will be installed.</t>
+    </r>
+  </si>
+  <si>
+    <t>Cuba Sustainable Transport</t>
+  </si>
+  <si>
+    <t>PIMS+</t>
+  </si>
+  <si>
+    <t>Number of direct beneficiaries of the project by the Transit Oriented Development (TOD) measures and NMT.</t>
+  </si>
+  <si>
+    <t>Pilot intervention on Sustainable Transport  Mobility (electric tricycles) was implemented in the Havana city.</t>
+  </si>
+  <si>
+    <t>CleanEnerg Cuba</t>
+  </si>
+  <si>
+    <t>Clean Cooking</t>
+  </si>
+  <si>
+    <t>Number of people directly and indirectly benefited from  renewable energy due to project action.</t>
+  </si>
+  <si>
+    <t>Pilot intervention on biogas and biodiesel to promote the use of bioenergy technologies by rural farmers.</t>
+  </si>
+  <si>
+    <t>Accelerating just energy transition</t>
+  </si>
+  <si>
+    <t>Apoyo a la revitalización del empleo en la cadena de producción ganadera de la provincia de Guantánamo, en la etapa de Recuperación post COVID-19</t>
+  </si>
+  <si>
+    <t>Empleo Autoabastecimiento COVID-19 | UNDP Transparency Portal</t>
+  </si>
+  <si>
+    <t>Agricultural Services</t>
+  </si>
+  <si>
+    <t>Number of direct beneficiaries of the project by the renewable energy solutions (irrigation: photovoltaic) installed in family farms.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pilot intervention on renewable energy solutions (irrigation: photovoltaic) was implemented to support 16 family farms in Guantánamo province. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> This indicator will be declared in a future Implementation Report to the TFD Russia-UNDP, once the technology will be installed.</t>
+    </r>
+  </si>
+  <si>
+    <t>ALASS</t>
+  </si>
+  <si>
+    <t>https://open.undp.org/projects/00118495</t>
+  </si>
+  <si>
+    <t>Number of direct beneficiaries of the project by the renewable energy solutions installed to support the local agri-food systems.</t>
+  </si>
+  <si>
+    <t>Pilot interventions on renewable energy solutions (irrigation: photovoltaic; biogas: mini-industries, windmills for water supply )  will be implemented to support the sustainability of local agri-food systems in 16 selected communities.</t>
+  </si>
+  <si>
+    <t>Agrofrutales</t>
+  </si>
+  <si>
+    <t>https://open.undp.org/projects/00085124</t>
+  </si>
+  <si>
+    <t>Renewable energy solutions for fruit production (irrigation: photovoltaic)  will be implemented in selected farms.</t>
+  </si>
+  <si>
     <t>Numberphotovoltaic systems (PVSs) installed or repaired.</t>
   </si>
   <si>
@@ -166,21 +329,6 @@
     </r>
   </si>
   <si>
-    <t>Energy (MW added)</t>
-  </si>
-  <si>
-    <t>MW</t>
-  </si>
-  <si>
-    <t>MUNICIPIO MARTI ENERGIA SOSTENIBLE</t>
-  </si>
-  <si>
-    <t>http://open.undp.org/projects/00118945</t>
-  </si>
-  <si>
-    <t>Number of direct beneficiaries of the project by use of biomethane public transport</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Five low-emission public transport buses will be put into operation in the Martí Municipality, after the installation of a biomethane plant with its filling stations. </t>
     </r>
@@ -203,88 +351,6 @@
     </r>
   </si>
   <si>
-    <t>Cuba Sustainable Transport</t>
-  </si>
-  <si>
-    <t>PIMS+</t>
-  </si>
-  <si>
-    <t>Number of direct beneficiaries of the project by the Transit Oriented Development (TOD) measures and NMT.</t>
-  </si>
-  <si>
-    <t>Pilot intervention on Sustainable Transport  Mobility (electric tricycles) was implemented in the Havana city.</t>
-  </si>
-  <si>
-    <t>CleanEnerg Cuba</t>
-  </si>
-  <si>
-    <t>Clean Cooking</t>
-  </si>
-  <si>
-    <t>Number of people directly and indirectly benefited from  renewable energy due to project action.</t>
-  </si>
-  <si>
-    <t>Pilot intervention on biogas and biodiesel to promote the use of bioenergy technologies by rural farmers.</t>
-  </si>
-  <si>
-    <t>Accelerating just energy transition</t>
-  </si>
-  <si>
-    <t>Apoyo a la revitalización del empleo en la cadena de producción ganadera de la provincia de Guantánamo, en la etapa de Recuperación post COVID-19</t>
-  </si>
-  <si>
-    <t>Empleo Autoabastecimiento COVID-19 | UNDP Transparency Portal</t>
-  </si>
-  <si>
-    <t>Agricultural Services</t>
-  </si>
-  <si>
-    <t>Number of direct beneficiaries of the project by the renewable energy solutions (irrigation: photovoltaic) installed in family farms.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pilot intervention on renewable energy solutions (irrigation: photovoltaic) was implemented to support 16 family farms in Guantánamo province. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Note:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> This indicator will be declared in a future Implementation Report to the TFD Russia-UNDP, once the technology will be installed.</t>
-    </r>
-  </si>
-  <si>
-    <t>ALASS</t>
-  </si>
-  <si>
-    <t>https://open.undp.org/projects/00118495</t>
-  </si>
-  <si>
-    <t>Number of direct beneficiaries of the project by the renewable energy solutions installed to support the local agri-food systems.</t>
-  </si>
-  <si>
-    <t>Pilot interventions on renewable energy solutions (irrigation: photovoltaic; biogas: mini-industries, windmills for water supply )  will be implemented to support the sustainability of local agri-food systems in 16 selected communities.</t>
-  </si>
-  <si>
-    <t>Agrofrutales</t>
-  </si>
-  <si>
-    <t>https://open.undp.org/projects/00085124</t>
-  </si>
-  <si>
-    <t>Renewable energy solutions for fruit production (irrigation: photovoltaic)  will be implemented in selected farms.</t>
-  </si>
-  <si>
     <t>2, 451</t>
   </si>
   <si>
@@ -394,11 +460,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;?_);_(@_)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,8 +525,30 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -511,6 +600,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,6 +741,57 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -670,64 +816,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1035,10 +1130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662F1B48-A46B-4040-AF4E-9FDFB8BEACA0}">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1048,6 +1143,7 @@
     <col min="5" max="6" width="20.7109375" customWidth="1"/>
     <col min="7" max="8" width="12.7109375" customWidth="1"/>
     <col min="9" max="9" width="32.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
     <col min="13" max="13" width="48.5703125" customWidth="1"/>
     <col min="15" max="15" width="11.5703125" customWidth="1"/>
     <col min="16" max="16" width="12.7109375" customWidth="1"/>
@@ -1055,441 +1151,419 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="45.75">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="N1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="O1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="P1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="Q1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="39" t="s">
+      <c r="R1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="39" t="s">
+      <c r="S1" s="36" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="26" customFormat="1" ht="183">
-      <c r="A2" s="40">
+    <row r="2" spans="1:19" ht="183">
+      <c r="A2" s="37">
         <v>98897</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="52">
+      <c r="D2" s="38">
         <v>3578420</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="42">
+      <c r="G2" s="39">
         <v>0</v>
       </c>
-      <c r="H2" s="55">
+      <c r="H2" s="40">
         <v>2451</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40" t="s">
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="40" t="s">
+      <c r="P2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-    </row>
-    <row r="3" spans="1:19" ht="121.5">
-      <c r="A3" s="44">
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+    </row>
+    <row r="3" spans="1:19" ht="198">
+      <c r="A3" s="31">
         <v>110578</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="53">
+      <c r="D3" s="33">
         <v>7710027</v>
       </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46" t="s">
+      <c r="E3" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="46">
+      <c r="F3" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="34">
         <v>0</v>
       </c>
-      <c r="H3" s="56">
-        <v>2827</v>
-      </c>
-      <c r="I3" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-    </row>
-    <row r="4" spans="1:19" s="26" customFormat="1" ht="60.75">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="42" t="s">
+      <c r="H3" s="57">
+        <v>100</v>
+      </c>
+      <c r="I3" s="55" t="s">
         <v>30</v>
       </c>
+      <c r="J3" s="46">
+        <f>H3*17500</f>
+        <v>1750000</v>
+      </c>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+    </row>
+    <row r="4" spans="1:19" ht="137.25">
+      <c r="A4" s="37">
+        <v>118945</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="38">
+        <v>433162</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="F4" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="42"/>
-      <c r="H4" s="55">
-        <v>1654.6</v>
-      </c>
-      <c r="I4" s="42"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="42">
+        <v>0</v>
+      </c>
+      <c r="H4" s="43">
+        <v>22000</v>
+      </c>
+      <c r="I4" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+    </row>
+    <row r="5" spans="1:19" ht="91.5">
+      <c r="A5" s="37">
+        <v>5653</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="38">
+        <v>1959132</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="39">
+        <v>0</v>
+      </c>
+      <c r="H5" s="40">
+        <v>132820</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+    </row>
+    <row r="6" spans="1:19" ht="76.5">
+      <c r="A6" s="37">
+        <v>4899</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="38">
+        <v>2737524</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="39">
+        <v>0</v>
+      </c>
+      <c r="H6" s="40">
+        <v>88100</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+    </row>
+    <row r="7" spans="1:19" ht="137.25">
+      <c r="A7" s="42">
+        <v>120932</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="38">
+        <v>100000</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="42">
+        <v>0</v>
+      </c>
+      <c r="H7" s="43">
+        <v>64</v>
+      </c>
+      <c r="I7" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="40" t="s">
+      <c r="P7" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-    </row>
-    <row r="5" spans="1:19" ht="137.25">
-      <c r="A5" s="44">
-        <v>118945</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="53">
-        <v>433162</v>
-      </c>
-      <c r="E5" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="47">
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+    </row>
+    <row r="8" spans="1:19" ht="121.5">
+      <c r="A8" s="37">
+        <v>118495</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="38">
+        <v>800000</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="42">
         <v>0</v>
       </c>
-      <c r="H5" s="57">
-        <v>22000</v>
-      </c>
-      <c r="I5" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-    </row>
-    <row r="6" spans="1:19" ht="91.5">
-      <c r="A6" s="44">
-        <v>5653</v>
-      </c>
-      <c r="B6" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="53">
-        <v>1959132</v>
-      </c>
-      <c r="E6" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="46">
+      <c r="H8" s="43">
+        <v>100000</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+    </row>
+    <row r="9" spans="1:19" ht="106.5">
+      <c r="A9" s="39">
+        <v>85124</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="45">
+        <v>128000</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="42">
         <v>0</v>
       </c>
-      <c r="H6" s="56">
-        <v>132820</v>
-      </c>
-      <c r="I6" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-    </row>
-    <row r="7" spans="1:19" ht="76.5">
-      <c r="A7" s="44">
-        <v>4899</v>
-      </c>
-      <c r="B7" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="53">
-        <v>2737524</v>
-      </c>
-      <c r="E7" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="46">
-        <v>0</v>
-      </c>
-      <c r="H7" s="56">
-        <v>88100</v>
-      </c>
-      <c r="I7" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="P7" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-    </row>
-    <row r="8" spans="1:19" ht="137.25">
-      <c r="A8" s="48">
-        <v>120932</v>
-      </c>
-      <c r="B8" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="53">
-        <v>100000</v>
-      </c>
-      <c r="E8" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="47">
-        <v>0</v>
-      </c>
-      <c r="H8" s="57">
-        <v>64</v>
-      </c>
-      <c r="I8" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="P8" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-    </row>
-    <row r="9" spans="1:19" ht="121.5">
-      <c r="A9" s="44">
-        <v>118495</v>
-      </c>
-      <c r="B9" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="53">
-        <v>800000</v>
-      </c>
-      <c r="E9" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="47">
-        <v>0</v>
-      </c>
-      <c r="H9" s="57">
-        <v>100000</v>
-      </c>
-      <c r="I9" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-    </row>
-    <row r="10" spans="1:19" ht="106.5">
-      <c r="A10" s="49">
-        <v>85124</v>
-      </c>
-      <c r="B10" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="51" t="s">
+      <c r="H9" s="43">
+        <v>10</v>
+      </c>
+      <c r="I9" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="54">
-        <v>128000</v>
-      </c>
-      <c r="E10" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="47">
-        <v>0</v>
-      </c>
-      <c r="H10" s="57">
-        <v>10</v>
-      </c>
-      <c r="I10" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S10" xr:uid="{876AEDA9-B2BE-4622-ADDF-52E4A1AA5F7B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:P9 P2:P3" xr:uid="{3709A748-5F07-400A-8878-D6DCA1FDC763}">
+      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O4:O9 O2:O3" xr:uid="{4A398C99-E181-4FEC-9970-D44305110068}">
+      <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S9" xr:uid="{876AEDA9-B2BE-4622-ADDF-52E4A1AA5F7B}">
       <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R10" xr:uid="{46CA21C1-C776-43C8-962E-F9AEF7884DC3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R9" xr:uid="{46CA21C1-C776-43C8-962E-F9AEF7884DC3}">
       <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q10" xr:uid="{83222196-6AD0-41C9-A681-F02CD81BDE15}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q9" xr:uid="{83222196-6AD0-41C9-A681-F02CD81BDE15}">
       <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P10" xr:uid="{3709A748-5F07-400A-8878-D6DCA1FDC763}">
-      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O10" xr:uid="{4A398C99-E181-4FEC-9970-D44305110068}">
-      <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{E5D8FF80-2673-43D2-97E6-D2664D80DD3D}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{4B863770-AF04-4696-A411-D86B3CCD7D4C}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{D036BA61-C562-4651-9C40-05BB629E8AF2}"/>
-    <hyperlink ref="C8" r:id="rId4" xr:uid="{4125A59E-1D43-4E3A-87EC-EDD48F919EBE}"/>
-    <hyperlink ref="C9" r:id="rId5" xr:uid="{D304957A-E5F7-4794-8072-FC4FDC524C8E}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{D036BA61-C562-4651-9C40-05BB629E8AF2}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{4125A59E-1D43-4E3A-87EC-EDD48F919EBE}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{D304957A-E5F7-4794-8072-FC4FDC524C8E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1499,7 +1573,7 @@
           <x14:formula1>
             <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
           </x14:formula1>
-          <xm:sqref>E11:E17</xm:sqref>
+          <xm:sqref>E10:E16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1511,8 +1585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C79BE17-53D9-431D-83DF-EF731851A711}">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1620,21 +1694,21 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="121.5">
-      <c r="A3" s="30">
+      <c r="A3" s="47">
         <v>110578</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="47">
         <v>7710027</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="9" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="G3" s="8">
         <v>0</v>
@@ -1643,7 +1717,7 @@
         <v>2827</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -1656,15 +1730,15 @@
       <c r="S3" s="26"/>
     </row>
     <row r="4" spans="1:19" s="26" customFormat="1">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="31"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="48"/>
       <c r="E4" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G4" s="22"/>
       <c r="H4" s="22">
@@ -1687,10 +1761,10 @@
         <v>118945</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="D5" s="5">
         <v>433162</v>
@@ -1699,7 +1773,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" s="13">
         <v>0</v>
@@ -1708,7 +1782,7 @@
         <v>22000</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -1725,10 +1799,10 @@
         <v>5653</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="D6" s="5">
         <v>1959132</v>
@@ -1737,7 +1811,7 @@
         <v>21</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" s="8">
         <v>0</v>
@@ -1746,7 +1820,7 @@
         <v>132820</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -1763,19 +1837,19 @@
         <v>4899</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="5">
         <v>2737524</v>
       </c>
       <c r="E7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>42</v>
       </c>
       <c r="G7" s="8">
         <v>0</v>
@@ -1784,17 +1858,17 @@
         <v>88100</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="O7" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P7" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="26"/>
       <c r="R7" s="26"/>
@@ -1805,19 +1879,19 @@
         <v>120932</v>
       </c>
       <c r="B8" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>45</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>46</v>
       </c>
       <c r="D8" s="5">
         <v>100000</v>
       </c>
       <c r="E8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>47</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>48</v>
       </c>
       <c r="G8" s="13">
         <v>0</v>
@@ -1826,7 +1900,7 @@
         <v>64</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -1847,19 +1921,19 @@
         <v>118495</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="D9" s="5">
         <v>800000</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" s="13">
         <v>0</v>
@@ -1868,7 +1942,7 @@
         <v>100000</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -1885,19 +1959,19 @@
         <v>85124</v>
       </c>
       <c r="B10" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>54</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>55</v>
       </c>
       <c r="D10" s="19">
         <v>128000</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" s="13">
         <v>0</v>
@@ -1906,7 +1980,7 @@
         <v>10</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -1970,7 +2044,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2036,7 +2110,7 @@
         <v>3578420</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>22</v>
@@ -2045,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>23</v>
@@ -2069,10 +2143,10 @@
         <v>7710027</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G3" s="8">
         <v>0</v>
@@ -2081,7 +2155,7 @@
         <v>2827</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -2093,10 +2167,10 @@
         <v>118945</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="D4" s="5">
         <v>433162</v>
@@ -2105,7 +2179,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" s="13">
         <v>0</v>
@@ -2114,7 +2188,7 @@
         <v>22000</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -2126,10 +2200,10 @@
         <v>5653</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="D5" s="5">
         <v>1959132</v>
@@ -2138,7 +2212,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" s="8">
         <v>0</v>
@@ -2147,7 +2221,7 @@
         <v>132820</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -2159,19 +2233,19 @@
         <v>4899</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="5">
         <v>2737524</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>42</v>
       </c>
       <c r="G6" s="8">
         <v>0</v>
@@ -2180,7 +2254,7 @@
         <v>88100</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -2192,19 +2266,19 @@
         <v>120932</v>
       </c>
       <c r="B7" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>45</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>46</v>
       </c>
       <c r="D7" s="5">
         <v>100000</v>
       </c>
       <c r="E7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>47</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>48</v>
       </c>
       <c r="G7" s="13">
         <v>0</v>
@@ -2213,7 +2287,7 @@
         <v>64</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -2225,19 +2299,19 @@
         <v>118495</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="D8" s="5">
         <v>800000</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G8" s="13">
         <v>0</v>
@@ -2246,7 +2320,7 @@
         <v>100000</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -2258,19 +2332,19 @@
         <v>85124</v>
       </c>
       <c r="B9" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>54</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>55</v>
       </c>
       <c r="D9" s="19">
         <v>128000</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" s="13">
         <v>0</v>
@@ -2279,7 +2353,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -2323,160 +2397,160 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="34" t="s">
-        <v>61</v>
+      <c r="A2" s="51" t="s">
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="34"/>
+      <c r="A3" s="51"/>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="34"/>
+      <c r="A4" s="51"/>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="35" t="s">
-        <v>66</v>
+      <c r="A5" s="52" t="s">
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="35"/>
+      <c r="A6" s="52"/>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="35"/>
+      <c r="A7" s="52"/>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="35"/>
+      <c r="A8" s="52"/>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="35"/>
+      <c r="A9" s="52"/>
       <c r="B9" t="s">
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="36" t="s">
-        <v>75</v>
+      <c r="A10" s="53" t="s">
+        <v>77</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="36"/>
+      <c r="A11" s="53"/>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="37" t="s">
-        <v>80</v>
+      <c r="A12" s="54" t="s">
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="37"/>
+      <c r="A13" s="54"/>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="37"/>
+      <c r="A14" s="54"/>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2491,6 +2565,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -2739,28 +2833,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{494C9A6E-DB60-4C5B-A591-DCCAD84DBDB3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23A76618-C921-44CE-8B1C-597576FB1E58}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2768,5 +2842,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23A76618-C921-44CE-8B1C-597576FB1E58}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{494C9A6E-DB60-4C5B-A591-DCCAD84DBDB3}"/>
 </file>
--- a/01_Input/00_CO Validation/Cuba - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Cuba - Energy Projects.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27221"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29325"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="181" documentId="11_8CC573B517C32C88C802DE539ED75CBA98A8355C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62F0D53D-D0F1-455C-BCF2-4F4EF5CABD45}"/>
+  <xr:revisionPtr revIDLastSave="200" documentId="11_8CC573B517C32C88C802DE539ED75CBA98A8355C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06FCC8B1-50F4-4A85-B1FF-9DD38831ED2F}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects (3)" sheetId="4" r:id="rId1"/>
-    <sheet name="Projects (2)" sheetId="3" r:id="rId2"/>
-    <sheet name="Projects" sheetId="1" r:id="rId3"/>
+    <sheet name="Projects (2)" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="Projects" sheetId="1" state="hidden" r:id="rId3"/>
     <sheet name="Beneficiary Categories" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="112">
   <si>
     <t>Project ID</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Policy Population</t>
+  </si>
+  <si>
+    <t>Project doc</t>
   </si>
   <si>
     <t>FRELOCAL - FUENTES RENOVABLES DE ENERGIA - DES LOCAL</t>
@@ -204,6 +207,9 @@
     <t>Accelerating just energy transition</t>
   </si>
   <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>MUNICIPIO MARTI ENERGIA SOSTENIBLE</t>
   </si>
   <si>
@@ -246,7 +252,7 @@
     <t>Cuba Sustainable Transport</t>
   </si>
   <si>
-    <t>PIMS+</t>
+    <t>https://co.pims.undp.org/project/view?id=5653</t>
   </si>
   <si>
     <t>Number of direct beneficiaries of the project by the Transit Oriented Development (TOD) measures and NMT.</t>
@@ -255,10 +261,16 @@
     <t>Pilot intervention on Sustainable Transport  Mobility (electric tricycles) was implemented in the Havana city.</t>
   </si>
   <si>
+    <t>GEF</t>
+  </si>
+  <si>
     <t>VF</t>
   </si>
   <si>
     <t>CleanEnerg Cuba</t>
+  </si>
+  <si>
+    <t>https://co.pims.undp.org/project/view?id=4899</t>
   </si>
   <si>
     <t>Clean Cooking</t>
@@ -392,6 +404,9 @@
     </r>
   </si>
   <si>
+    <t>PIMS+</t>
+  </si>
+  <si>
     <t>Agricultural Services</t>
   </si>
   <si>
@@ -515,7 +530,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;?_);_(@_)"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -605,6 +620,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -714,19 +737,16 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -746,7 +766,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -767,15 +787,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -847,26 +867,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1173,10 +1203,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662F1B48-A46B-4040-AF4E-9FDFB8BEACA0}">
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1197,9 +1230,10 @@
     <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" style="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="45.75">
+    <row r="1" spans="1:22" ht="45.75">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -1263,25 +1297,28 @@
       <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" ht="183">
+      <c r="V1" s="56" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="183">
       <c r="A2" s="34">
         <v>98897</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="35">
         <v>3578420</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" s="36">
         <v>0</v>
@@ -1290,45 +1327,45 @@
         <v>2451</v>
       </c>
       <c r="I2" s="36" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" s="34"/>
       <c r="K2" s="34"/>
       <c r="L2" s="50" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M2" s="46"/>
       <c r="N2" s="51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O2" s="46"/>
       <c r="P2" s="46"/>
       <c r="Q2" s="46"/>
       <c r="R2" s="46"/>
       <c r="S2" s="52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T2" s="50"/>
       <c r="U2" s="52"/>
     </row>
-    <row r="3" spans="1:21" ht="305.25">
+    <row r="3" spans="1:22" ht="305.25">
       <c r="A3" s="28">
         <v>110578</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" s="30">
         <v>7710027</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -1337,45 +1374,48 @@
         <v>6407</v>
       </c>
       <c r="I3" s="43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J3" s="42"/>
       <c r="K3" s="28"/>
       <c r="L3" s="50" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M3" s="46"/>
       <c r="N3" s="51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O3" s="46"/>
       <c r="P3" s="46"/>
       <c r="Q3" s="46"/>
       <c r="R3" s="46"/>
       <c r="S3" s="52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T3" s="50"/>
       <c r="U3" s="52"/>
-    </row>
-    <row r="4" spans="1:21" ht="137.25">
+      <c r="V3" s="56" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="137.25">
       <c r="A4" s="34">
         <v>118945</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D4" s="35">
         <v>433162</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G4" s="38">
         <v>0</v>
@@ -1384,16 +1424,16 @@
         <v>22000</v>
       </c>
       <c r="I4" s="44" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J4" s="34"/>
       <c r="K4" s="34"/>
       <c r="L4" s="50" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M4" s="46"/>
       <c r="N4" s="51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O4" s="46"/>
       <c r="P4" s="46"/>
@@ -1402,25 +1442,28 @@
       <c r="S4" s="52"/>
       <c r="T4" s="50"/>
       <c r="U4" s="52"/>
-    </row>
-    <row r="5" spans="1:21" ht="91.5">
+      <c r="V4" s="56" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="91.5">
       <c r="A5" s="34">
         <v>5653</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>42</v>
       </c>
       <c r="D5" s="35">
         <v>1959132</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G5" s="36">
         <v>0</v>
@@ -1429,16 +1472,18 @@
         <v>132820</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="34"/>
+        <v>44</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>45</v>
+      </c>
       <c r="K5" s="34"/>
       <c r="L5" s="50" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M5" s="46"/>
       <c r="N5" s="51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O5" s="46"/>
       <c r="P5" s="46"/>
@@ -1447,25 +1492,28 @@
       <c r="S5" s="52"/>
       <c r="T5" s="50"/>
       <c r="U5" s="52"/>
-    </row>
-    <row r="6" spans="1:21" ht="76.5">
+      <c r="V5" s="56" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="76.5">
       <c r="A6" s="34">
         <v>4899</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>40</v>
+        <v>47</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>48</v>
       </c>
       <c r="D6" s="35">
         <v>2737524</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G6" s="36">
         <v>0</v>
@@ -1474,16 +1522,18 @@
         <v>88100</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="34"/>
+        <v>51</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>45</v>
+      </c>
       <c r="K6" s="34"/>
       <c r="L6" s="50" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M6" s="46"/>
       <c r="N6" s="51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O6" s="46"/>
       <c r="P6" s="46"/>
@@ -1492,25 +1542,28 @@
       <c r="S6" s="52"/>
       <c r="T6" s="50"/>
       <c r="U6" s="52"/>
-    </row>
-    <row r="7" spans="1:21" ht="137.25">
+      <c r="V6" s="56" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="137.25">
       <c r="A7" s="38">
         <v>120932</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D7" s="35">
         <v>100000</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G7" s="38">
         <v>0</v>
@@ -1519,16 +1572,16 @@
         <v>64</v>
       </c>
       <c r="I7" s="38" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="J7" s="34"/>
       <c r="K7" s="34"/>
       <c r="L7" s="50" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M7" s="46"/>
       <c r="N7" s="51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O7" s="46"/>
       <c r="P7" s="46"/>
@@ -1538,24 +1591,24 @@
       <c r="T7" s="50"/>
       <c r="U7" s="52"/>
     </row>
-    <row r="8" spans="1:21" ht="121.5">
+    <row r="8" spans="1:22" ht="121.5">
       <c r="A8" s="34">
         <v>118495</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>54</v>
+        <v>57</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>58</v>
       </c>
       <c r="D8" s="35">
         <v>800000</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F8" s="38" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G8" s="38">
         <v>0</v>
@@ -1564,16 +1617,16 @@
         <v>100000</v>
       </c>
       <c r="I8" s="38" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J8" s="34"/>
       <c r="K8" s="34"/>
       <c r="L8" s="50" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M8" s="46"/>
       <c r="N8" s="51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O8" s="46"/>
       <c r="P8" s="46"/>
@@ -1582,25 +1635,28 @@
       <c r="S8" s="52"/>
       <c r="T8" s="50"/>
       <c r="U8" s="52"/>
-    </row>
-    <row r="9" spans="1:21" ht="106.5">
+      <c r="V8" s="56" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="106.5">
       <c r="A9" s="36">
         <v>85124</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D9" s="41">
         <v>128000</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G9" s="38">
         <v>0</v>
@@ -1609,16 +1665,16 @@
         <v>10</v>
       </c>
       <c r="I9" s="38" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J9" s="34"/>
       <c r="K9" s="34"/>
       <c r="L9" s="50" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M9" s="46"/>
       <c r="N9" s="51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O9" s="46"/>
       <c r="P9" s="46"/>
@@ -1664,6 +1720,8 @@
     <hyperlink ref="C4" r:id="rId3" xr:uid="{D036BA61-C562-4651-9C40-05BB629E8AF2}"/>
     <hyperlink ref="C7" r:id="rId4" xr:uid="{4125A59E-1D43-4E3A-87EC-EDD48F919EBE}"/>
     <hyperlink ref="C8" r:id="rId5" xr:uid="{D304957A-E5F7-4794-8072-FC4FDC524C8E}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{087177D0-26E4-480D-ADFA-CA60FAFB2FF6}"/>
+    <hyperlink ref="C5" r:id="rId7" xr:uid="{21D15199-5395-4581-829A-33ECAF03C3E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1685,7 +1743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C79BE17-53D9-431D-83DF-EF731851A711}">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="E4" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -1733,10 +1791,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="O1" s="26" t="s">
         <v>13</v>
@@ -1759,19 +1817,19 @@
         <v>98897</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="24">
         <v>3578420</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" s="19">
         <v>0</v>
@@ -1780,35 +1838,35 @@
         <v>2451</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" s="18"/>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
       <c r="M2" s="22"/>
       <c r="O2" s="23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P2" s="23" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="121.5">
-      <c r="A3" s="53">
+      <c r="A3" s="59">
         <v>110578</v>
       </c>
-      <c r="B3" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="55" t="s">
+      <c r="B3" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="53">
+      <c r="C3" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="59">
         <v>7710027</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G3" s="5">
         <v>0</v>
@@ -1817,7 +1875,7 @@
         <v>2827</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -1830,15 +1888,15 @@
       <c r="S3" s="23"/>
     </row>
     <row r="4" spans="1:19" s="23" customFormat="1">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="54"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="60"/>
       <c r="E4" s="19" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="19">
@@ -1850,10 +1908,10 @@
       <c r="L4" s="18"/>
       <c r="M4" s="18"/>
       <c r="O4" s="23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P4" s="23" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="137.25">
@@ -1861,19 +1919,19 @@
         <v>118945</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5" s="2">
         <v>433162</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G5" s="10">
         <v>0</v>
@@ -1882,7 +1940,7 @@
         <v>22000</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -1899,19 +1957,19 @@
         <v>5653</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2">
         <v>1959132</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G6" s="5">
         <v>0</v>
@@ -1920,7 +1978,7 @@
         <v>132820</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -1937,19 +1995,19 @@
         <v>4899</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2">
         <v>2737524</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G7" s="5">
         <v>0</v>
@@ -1958,17 +2016,17 @@
         <v>88100</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="O7" s="23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P7" s="23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q7" s="23"/>
       <c r="R7" s="23"/>
@@ -1979,19 +2037,19 @@
         <v>120932</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D8" s="2">
         <v>100000</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G8" s="10">
         <v>0</v>
@@ -2000,17 +2058,17 @@
         <v>64</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="O8" s="23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P8" s="23" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q8" s="23"/>
       <c r="R8" s="23"/>
@@ -2021,19 +2079,19 @@
         <v>118495</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D9" s="2">
         <v>800000</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G9" s="10">
         <v>0</v>
@@ -2042,7 +2100,7 @@
         <v>100000</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -2059,19 +2117,19 @@
         <v>85124</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D10" s="16">
         <v>128000</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G10" s="10">
         <v>0</v>
@@ -2080,7 +2138,7 @@
         <v>10</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -2190,10 +2248,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="183">
@@ -2201,28 +2259,28 @@
         <v>98897</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2">
         <v>3578420</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" s="5">
         <v>0</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -2234,19 +2292,19 @@
         <v>110578</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2">
         <v>7710027</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G3" s="5">
         <v>0</v>
@@ -2255,7 +2313,7 @@
         <v>2827</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -2267,19 +2325,19 @@
         <v>118945</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2">
         <v>433162</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G4" s="10">
         <v>0</v>
@@ -2288,7 +2346,7 @@
         <v>22000</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -2300,19 +2358,19 @@
         <v>5653</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2">
         <v>1959132</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G5" s="5">
         <v>0</v>
@@ -2321,7 +2379,7 @@
         <v>132820</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -2333,19 +2391,19 @@
         <v>4899</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2">
         <v>2737524</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G6" s="5">
         <v>0</v>
@@ -2354,7 +2412,7 @@
         <v>88100</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -2366,19 +2424,19 @@
         <v>120932</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2">
         <v>100000</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G7" s="10">
         <v>0</v>
@@ -2387,7 +2445,7 @@
         <v>64</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -2399,19 +2457,19 @@
         <v>118495</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2">
         <v>800000</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G8" s="10">
         <v>0</v>
@@ -2420,7 +2478,7 @@
         <v>100000</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -2432,19 +2490,19 @@
         <v>85124</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D9" s="16">
         <v>128000</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G9" s="10">
         <v>0</v>
@@ -2453,7 +2511,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -2488,9 +2546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView topLeftCell="A12" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2507,170 +2563,170 @@
     </row>
     <row r="2" spans="1:2" ht="45.75">
       <c r="A2" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>72</v>
+        <v>24</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="57" t="s">
-        <v>73</v>
+        <v>70</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30.75">
       <c r="A4" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="57" t="s">
-        <v>74</v>
+        <v>49</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30.75">
       <c r="A5" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="57" t="s">
-        <v>76</v>
+        <v>80</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="91.5">
       <c r="A6" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="57" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="45.75">
       <c r="A7" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="57" t="s">
-        <v>79</v>
+        <v>83</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45.75">
       <c r="A8" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="57" t="s">
-        <v>81</v>
+        <v>85</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45.75">
       <c r="A9" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="57" t="s">
-        <v>83</v>
+        <v>87</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30.75">
       <c r="A10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="58" t="s">
-        <v>84</v>
+        <v>38</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30.75">
       <c r="A11" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="58" t="s">
-        <v>86</v>
+        <v>90</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45.75">
       <c r="A12" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="57" t="s">
-        <v>88</v>
+        <v>92</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30.75">
       <c r="A13" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="58" t="s">
-        <v>89</v>
+        <v>66</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" s="58" t="s">
-        <v>91</v>
+        <v>95</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30.75">
       <c r="A15" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="58" t="s">
-        <v>93</v>
+        <v>97</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30.75">
       <c r="A16" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" s="58" t="s">
-        <v>95</v>
+        <v>99</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30.75">
       <c r="A17" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="57" t="s">
-        <v>97</v>
+        <v>101</v>
+      </c>
+      <c r="B17" s="53" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30.75">
       <c r="A18" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="58" t="s">
-        <v>99</v>
+        <v>103</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="76.5">
       <c r="A19" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="B19" s="58" t="s">
-        <v>101</v>
+        <v>105</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30.75">
       <c r="A20" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="B20" s="58" t="s">
-        <v>103</v>
+        <v>107</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45.75">
       <c r="A21" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="59" t="s">
-        <v>104</v>
+      <c r="B21" s="55" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30.75">
       <c r="A22" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="B22" s="58" t="s">
-        <v>106</v>
+        <v>110</v>
+      </c>
+      <c r="B22" s="54" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2688,8 +2744,19 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="55b7350c375998f6795677b1e38dfa8c">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="12a65a177b511ef7abe69f5e8f04446c" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
     <xsd:import namespace="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
     <xsd:element name="properties">
@@ -2714,6 +2781,8 @@
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceBillingMetadata" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2793,6 +2862,16 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceBillingMetadata" ma:index="26" nillable="true" ma:displayName="MediaServiceBillingMetadata" ma:hidden="true" ma:internalName="MediaServiceBillingMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -2936,25 +3015,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23A76618-C921-44CE-8B1C-597576FB1E58}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{494C9A6E-DB60-4C5B-A591-DCCAD84DBDB3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BAF31EC-C830-485F-840F-98EEC1ACF5A1}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BAF31EC-C830-485F-840F-98EEC1ACF5A1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F912AB8C-74E4-40DB-AF13-972C3F1DBC8F}"/>
 </file>